--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r103_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r103_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1976" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3952" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -361,10 +373,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -408,28 +420,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="C10" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="F10" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="2">
+      <c r="H10" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -454,28 +466,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="2">
+      <c r="I12" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -534,10 +546,10 @@
       <c r="I14">
         <f>((C14-C13)^2+(D14- D13)^2)^.5</f>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="2" t="s">
+      <c r="J14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L14" t="n">
@@ -581,28 +593,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="2">
+      <c r="A16" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C16" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s" s="2">
+      <c r="C16" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -627,28 +639,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I18" t="s" s="2">
+      <c r="I18" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -736,10 +748,10 @@
       <c r="I21">
         <f>((C21-C20)^2+(D21- D20)^2)^.5</f>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="2" t="s">
+      <c r="J21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L21" t="n">
@@ -783,28 +795,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="2">
+      <c r="A23" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C23" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s" s="2">
+      <c r="C23" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -829,28 +841,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C25" t="s" s="2">
+      <c r="C25" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D25" t="s" s="2">
+      <c r="D25" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I25" t="s" s="2">
+      <c r="I25" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -967,10 +979,10 @@
       <c r="I29">
         <f>((C29-C28)^2+(D29- D28)^2)^.5</f>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="2" t="s">
+      <c r="J29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L29" t="n">
@@ -1014,28 +1026,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="2">
+      <c r="A31" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C31" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s" s="2">
+      <c r="C31" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1060,28 +1072,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C33" t="s" s="2">
+      <c r="C33" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D33" t="s" s="2">
+      <c r="D33" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I33" t="s" s="2">
+      <c r="I33" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1169,10 +1181,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="2" t="s">
+      <c r="J36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1216,28 +1228,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="2">
+      <c r="A38" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="2">
+      <c r="C38" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1262,28 +1274,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="C40" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="2">
+      <c r="D40" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="2">
+      <c r="I40" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1371,10 +1383,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="2" t="s">
+      <c r="J43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1418,28 +1430,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="2">
+      <c r="A45" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s" s="2">
+      <c r="C45" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1464,28 +1476,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="2">
+      <c r="C47" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="2">
+      <c r="D47" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="2">
+      <c r="I47" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1573,10 +1585,10 @@
       <c r="I50">
         <f>((C50-C49)^2+(D50- D49)^2)^.5</f>
       </c>
-      <c r="J50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="2" t="s">
+      <c r="J50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L50" t="n">
@@ -1620,28 +1632,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="2">
+      <c r="A52" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C52" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D52" t="s" s="2">
+      <c r="C52" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1666,28 +1678,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C54" t="s" s="2">
+      <c r="C54" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D54" t="s" s="2">
+      <c r="D54" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I54" t="s" s="2">
+      <c r="I54" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1775,10 +1787,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="2" t="s">
+      <c r="J57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1822,28 +1834,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="2">
+      <c r="A59" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="2">
+      <c r="C59" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1868,28 +1880,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="2">
+      <c r="C61" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="2">
+      <c r="D61" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="2">
+      <c r="I61" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1977,10 +1989,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="2" t="s">
+      <c r="J64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2024,28 +2036,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="2">
+      <c r="A66" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="2">
+      <c r="C66" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2070,28 +2082,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="2">
+      <c r="C68" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="2">
+      <c r="D68" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="2">
+      <c r="I68" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2208,10 +2220,10 @@
       <c r="I72">
         <f>((C72-C71)^2+(D72- D71)^2)^.5</f>
       </c>
-      <c r="J72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K72" s="2" t="s">
+      <c r="J72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L72" t="n">
@@ -2255,28 +2267,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="2">
+      <c r="A74" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C74" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D74" t="s" s="2">
+      <c r="C74" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2301,28 +2313,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C76" t="s" s="2">
+      <c r="C76" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D76" t="s" s="2">
+      <c r="D76" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I76" t="s" s="2">
+      <c r="I76" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2439,10 +2451,10 @@
       <c r="I80">
         <f>((C80-C79)^2+(D80- D79)^2)^.5</f>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K80" s="2" t="s">
+      <c r="J80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K80" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L80" t="n">
@@ -2486,28 +2498,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="2">
+      <c r="A82" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C82" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D82" t="s" s="2">
+      <c r="C82" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2532,28 +2544,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C84" t="s" s="2">
+      <c r="C84" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D84" t="s" s="2">
+      <c r="D84" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I84" t="s" s="2">
+      <c r="I84" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2641,10 +2653,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K87" s="2" t="s">
+      <c r="J87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K87" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2688,28 +2700,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="2">
+      <c r="A89" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D89" t="s" s="2">
+      <c r="C89" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2734,28 +2746,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="2">
+      <c r="C91" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="2">
+      <c r="D91" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="2">
+      <c r="I91" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2843,10 +2855,10 @@
       <c r="I94">
         <f>((C94-C93)^2+(D94- D93)^2)^.5</f>
       </c>
-      <c r="J94" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K94" s="2" t="s">
+      <c r="J94" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K94" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L94" t="n">
@@ -2890,28 +2902,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="2">
+      <c r="A96" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C96" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D96" t="s" s="2">
+      <c r="C96" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2936,28 +2948,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C98" t="s" s="2">
+      <c r="C98" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D98" t="s" s="2">
+      <c r="D98" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I98" t="s" s="2">
+      <c r="I98" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3016,10 +3028,10 @@
       <c r="I100">
         <f>((C100-C99)^2+(D100- D99)^2)^.5</f>
       </c>
-      <c r="J100" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K100" s="2" t="s">
+      <c r="J100" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K100" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="n">
@@ -3063,28 +3075,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="2">
+      <c r="A102" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C102" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D102" t="s" s="2">
+      <c r="C102" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3109,28 +3121,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C104" t="s" s="2">
+      <c r="C104" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D104" t="s" s="2">
+      <c r="D104" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I104" t="s" s="2">
+      <c r="I104" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3189,10 +3201,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K106" s="2" t="s">
+      <c r="J106" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3236,28 +3248,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="2">
+      <c r="A108" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s" s="2">
+      <c r="C108" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3282,28 +3294,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="C110" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="2">
+      <c r="D110" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="2">
+      <c r="I110" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3391,10 +3403,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K113" s="2" t="s">
+      <c r="J113" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K113" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3438,28 +3450,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="2">
+      <c r="A115" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s" s="2">
+      <c r="C115" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3484,28 +3496,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="2">
+      <c r="C117" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="2">
+      <c r="D117" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="2">
+      <c r="I117" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3593,10 +3605,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K120" s="2" t="s">
+      <c r="J120" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3640,28 +3652,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="2">
+      <c r="A122" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D122" t="s" s="2">
+      <c r="C122" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3686,28 +3698,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="2">
+      <c r="C124" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="2">
+      <c r="D124" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="2">
+      <c r="I124" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3911,10 +3923,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K131" s="2" t="s">
+      <c r="J131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K131" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -3958,28 +3970,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="2">
+      <c r="A133" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s" s="2">
+      <c r="C133" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4004,28 +4016,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="2">
+      <c r="C135" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="2">
+      <c r="D135" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="2">
+      <c r="I135" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4113,10 +4125,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K138" s="2" t="s">
+      <c r="J138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K138" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4160,28 +4172,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="2">
+      <c r="A140" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D140" t="s" s="2">
+      <c r="C140" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4206,28 +4218,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="C142" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="2">
+      <c r="D142" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="2">
+      <c r="I142" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4344,10 +4356,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K146" s="2" t="s">
+      <c r="J146" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K146" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
@@ -4391,28 +4403,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s" s="2">
+      <c r="A148" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C148" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D148" t="s" s="2">
+      <c r="C148" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4437,28 +4449,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C150" t="s" s="2">
+      <c r="C150" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D150" t="s" s="2">
+      <c r="D150" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I150" t="s" s="2">
+      <c r="I150" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4546,10 +4558,10 @@
       <c r="I153">
         <f>((C153-C152)^2+(D153- D152)^2)^.5</f>
       </c>
-      <c r="J153" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K153" s="2" t="s">
+      <c r="J153" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K153" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L153" t="n">
@@ -4593,28 +4605,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="s" s="2">
+      <c r="A155" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C155" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D155" t="s" s="2">
+      <c r="C155" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D155" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4639,28 +4651,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C157" t="s" s="2">
+      <c r="C157" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D157" t="s" s="2">
+      <c r="D157" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I157" t="s" s="2">
+      <c r="I157" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4719,10 +4731,10 @@
       <c r="I159">
         <f>((C159-C158)^2+(D159- D158)^2)^.5</f>
       </c>
-      <c r="J159" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K159" s="2" t="s">
+      <c r="J159" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K159" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L159" t="n">
@@ -4766,28 +4778,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="s" s="2">
+      <c r="A161" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C161" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D161" t="s" s="2">
+      <c r="C161" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D161" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4812,28 +4824,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C163" t="s" s="2">
+      <c r="C163" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D163" t="s" s="2">
+      <c r="D163" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I163" t="s" s="2">
+      <c r="I163" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4892,10 +4904,10 @@
       <c r="I165">
         <f>((C165-C164)^2+(D165- D164)^2)^.5</f>
       </c>
-      <c r="J165" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K165" s="2" t="s">
+      <c r="J165" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K165" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L165" t="n">
@@ -4939,28 +4951,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="s" s="2">
+      <c r="A167" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C167" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D167" t="s" s="2">
+      <c r="C167" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D167" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4985,28 +4997,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="B169" t="s" s="2">
+      <c r="B169" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C169" t="s" s="2">
+      <c r="C169" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D169" t="s" s="2">
+      <c r="D169" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E169" t="s" s="2">
+      <c r="E169" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F169" t="s" s="2">
+      <c r="F169" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G169" t="s" s="2">
+      <c r="G169" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H169" t="s" s="2">
+      <c r="H169" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I169" t="s" s="2">
+      <c r="I169" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5065,10 +5077,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K171" s="2" t="s">
+      <c r="J171" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K171" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">
@@ -5112,28 +5124,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="s" s="2">
+      <c r="A173" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C173" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D173" t="s" s="2">
+      <c r="C173" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D173" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5158,28 +5170,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C175" t="s" s="2">
+      <c r="C175" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D175" t="s" s="2">
+      <c r="D175" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I175" t="s" s="2">
+      <c r="I175" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5296,10 +5308,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K179" s="2" t="s">
+      <c r="J179" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K179" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5343,28 +5355,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="2">
+      <c r="A181" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D181" t="s" s="2">
+      <c r="C181" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D181" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5389,28 +5401,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="2">
+      <c r="C183" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="2">
+      <c r="D183" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="2">
+      <c r="I183" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5527,10 +5539,10 @@
       <c r="I187">
         <f>((C187-C186)^2+(D187- D186)^2)^.5</f>
       </c>
-      <c r="J187" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K187" s="2" t="s">
+      <c r="J187" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K187" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L187" t="n">
@@ -5574,28 +5586,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="s" s="2">
+      <c r="A189" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C189" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D189" t="s" s="2">
+      <c r="C189" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D189" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5620,28 +5632,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C191" t="s" s="2">
+      <c r="C191" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D191" t="s" s="2">
+      <c r="D191" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I191" t="s" s="2">
+      <c r="I191" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5758,10 +5770,10 @@
       <c r="I195">
         <f>((C195-C194)^2+(D195- D194)^2)^.5</f>
       </c>
-      <c r="J195" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K195" s="2" t="s">
+      <c r="J195" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K195" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L195" t="n">
@@ -5805,28 +5817,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="s" s="2">
+      <c r="A197" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C197" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D197" t="s" s="2">
+      <c r="C197" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D197" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5851,28 +5863,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C199" t="s" s="2">
+      <c r="C199" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D199" t="s" s="2">
+      <c r="D199" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I199" t="s" s="2">
+      <c r="I199" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5960,10 +5972,10 @@
       <c r="I202">
         <f>((C202-C201)^2+(D202- D201)^2)^.5</f>
       </c>
-      <c r="J202" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K202" s="2" t="s">
+      <c r="J202" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K202" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L202" t="n">
@@ -6007,28 +6019,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="s" s="2">
+      <c r="A204" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C204" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D204" t="s" s="2">
+      <c r="C204" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6053,28 +6065,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C206" t="s" s="2">
+      <c r="C206" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D206" t="s" s="2">
+      <c r="D206" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I206" t="s" s="2">
+      <c r="I206" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6162,10 +6174,10 @@
       <c r="I209">
         <f>((C209-C208)^2+(D209- D208)^2)^.5</f>
       </c>
-      <c r="J209" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K209" s="2" t="s">
+      <c r="J209" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K209" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L209" t="n">
@@ -6209,28 +6221,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="s" s="2">
+      <c r="A211" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C211" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D211" t="s" s="2">
+      <c r="C211" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D211" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6255,28 +6267,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="B213" t="s" s="2">
+      <c r="B213" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C213" t="s" s="2">
+      <c r="C213" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D213" t="s" s="2">
+      <c r="D213" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E213" t="s" s="2">
+      <c r="E213" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F213" t="s" s="2">
+      <c r="F213" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G213" t="s" s="2">
+      <c r="G213" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H213" t="s" s="2">
+      <c r="H213" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I213" t="s" s="2">
+      <c r="I213" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6364,10 +6376,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="2" t="s">
+      <c r="J216" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
@@ -6411,28 +6423,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s" s="2">
+      <c r="A218" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C218" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D218" t="s" s="2">
+      <c r="C218" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6457,28 +6469,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C220" t="s" s="2">
+      <c r="C220" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D220" t="s" s="2">
+      <c r="D220" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I220" t="s" s="2">
+      <c r="I220" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6595,10 +6607,10 @@
       <c r="I224">
         <f>((C224-C223)^2+(D224- D223)^2)^.5</f>
       </c>
-      <c r="J224" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K224" s="2" t="s">
+      <c r="J224" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K224" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L224" t="n">
@@ -6642,28 +6654,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="s" s="2">
+      <c r="A226" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B226" t="s" s="2">
+      <c r="B226" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C226" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D226" t="s" s="2">
+      <c r="C226" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D226" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E226" t="s" s="2">
+      <c r="E226" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F226" t="s" s="2">
+      <c r="F226" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G226" t="s" s="2">
+      <c r="G226" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H226" t="s" s="2">
+      <c r="H226" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6688,28 +6700,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="B228" t="s" s="2">
+      <c r="B228" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C228" t="s" s="2">
+      <c r="C228" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D228" t="s" s="2">
+      <c r="D228" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E228" t="s" s="2">
+      <c r="E228" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F228" t="s" s="2">
+      <c r="F228" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G228" t="s" s="2">
+      <c r="G228" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H228" t="s" s="2">
+      <c r="H228" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I228" t="s" s="2">
+      <c r="I228" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6797,10 +6809,10 @@
       <c r="I231">
         <f>((C231-C230)^2+(D231- D230)^2)^.5</f>
       </c>
-      <c r="J231" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K231" s="2" t="s">
+      <c r="J231" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K231" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L231" t="n">
@@ -6844,28 +6856,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="s" s="2">
+      <c r="A233" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B233" t="s" s="2">
+      <c r="B233" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C233" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D233" t="s" s="2">
+      <c r="C233" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D233" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E233" t="s" s="2">
+      <c r="E233" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F233" t="s" s="2">
+      <c r="F233" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G233" t="s" s="2">
+      <c r="G233" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H233" t="s" s="2">
+      <c r="H233" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6890,28 +6902,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="B235" t="s" s="2">
+      <c r="B235" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C235" t="s" s="2">
+      <c r="C235" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D235" t="s" s="2">
+      <c r="D235" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E235" t="s" s="2">
+      <c r="E235" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F235" t="s" s="2">
+      <c r="F235" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G235" t="s" s="2">
+      <c r="G235" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H235" t="s" s="2">
+      <c r="H235" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I235" t="s" s="2">
+      <c r="I235" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6999,10 +7011,10 @@
       <c r="I238">
         <f>((C238-C237)^2+(D238- D237)^2)^.5</f>
       </c>
-      <c r="J238" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K238" s="2" t="s">
+      <c r="J238" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K238" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L238" t="n">
@@ -7046,28 +7058,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="s" s="2">
+      <c r="A240" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B240" t="s" s="2">
+      <c r="B240" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C240" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D240" t="s" s="2">
+      <c r="C240" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D240" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E240" t="s" s="2">
+      <c r="E240" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F240" t="s" s="2">
+      <c r="F240" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G240" t="s" s="2">
+      <c r="G240" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H240" t="s" s="2">
+      <c r="H240" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7092,28 +7104,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="B242" t="s" s="2">
+      <c r="B242" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C242" t="s" s="2">
+      <c r="C242" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D242" t="s" s="2">
+      <c r="D242" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E242" t="s" s="2">
+      <c r="E242" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F242" t="s" s="2">
+      <c r="F242" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G242" t="s" s="2">
+      <c r="G242" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H242" t="s" s="2">
+      <c r="H242" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I242" t="s" s="2">
+      <c r="I242" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7201,10 +7213,10 @@
       <c r="I245">
         <f>((C245-C244)^2+(D245- D244)^2)^.5</f>
       </c>
-      <c r="J245" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K245" s="2" t="s">
+      <c r="J245" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K245" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L245" t="n">
@@ -7248,28 +7260,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="s" s="2">
+      <c r="A247" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B247" t="s" s="2">
+      <c r="B247" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C247" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D247" t="s" s="2">
+      <c r="C247" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D247" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E247" t="s" s="2">
+      <c r="E247" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F247" t="s" s="2">
+      <c r="F247" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G247" t="s" s="2">
+      <c r="G247" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H247" t="s" s="2">
+      <c r="H247" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7294,28 +7306,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="B249" t="s" s="2">
+      <c r="B249" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C249" t="s" s="2">
+      <c r="C249" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D249" t="s" s="2">
+      <c r="D249" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E249" t="s" s="2">
+      <c r="E249" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F249" t="s" s="2">
+      <c r="F249" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G249" t="s" s="2">
+      <c r="G249" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H249" t="s" s="2">
+      <c r="H249" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I249" t="s" s="2">
+      <c r="I249" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7403,10 +7415,10 @@
       <c r="I252">
         <f>((C252-C251)^2+(D252- D251)^2)^.5</f>
       </c>
-      <c r="J252" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K252" s="2" t="s">
+      <c r="J252" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K252" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L252" t="n">
@@ -7450,28 +7462,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="s" s="2">
+      <c r="A254" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B254" t="s" s="2">
+      <c r="B254" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C254" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D254" t="s" s="2">
+      <c r="C254" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D254" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E254" t="s" s="2">
+      <c r="E254" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F254" t="s" s="2">
+      <c r="F254" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G254" t="s" s="2">
+      <c r="G254" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H254" t="s" s="2">
+      <c r="H254" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7496,28 +7508,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="B256" t="s" s="2">
+      <c r="B256" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C256" t="s" s="2">
+      <c r="C256" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D256" t="s" s="2">
+      <c r="D256" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E256" t="s" s="2">
+      <c r="E256" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F256" t="s" s="2">
+      <c r="F256" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G256" t="s" s="2">
+      <c r="G256" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H256" t="s" s="2">
+      <c r="H256" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I256" t="s" s="2">
+      <c r="I256" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7576,10 +7588,10 @@
       <c r="I258">
         <f>((C258-C257)^2+(D258- D257)^2)^.5</f>
       </c>
-      <c r="J258" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K258" s="2" t="s">
+      <c r="J258" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K258" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L258" t="n">
@@ -7623,28 +7635,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="s" s="2">
+      <c r="A260" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B260" t="s" s="2">
+      <c r="B260" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C260" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D260" t="s" s="2">
+      <c r="C260" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D260" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E260" t="s" s="2">
+      <c r="E260" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F260" t="s" s="2">
+      <c r="F260" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G260" t="s" s="2">
+      <c r="G260" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H260" t="s" s="2">
+      <c r="H260" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7669,28 +7681,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="B262" t="s" s="2">
+      <c r="B262" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C262" t="s" s="2">
+      <c r="C262" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D262" t="s" s="2">
+      <c r="D262" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E262" t="s" s="2">
+      <c r="E262" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F262" t="s" s="2">
+      <c r="F262" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G262" t="s" s="2">
+      <c r="G262" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H262" t="s" s="2">
+      <c r="H262" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I262" t="s" s="2">
+      <c r="I262" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7749,10 +7761,10 @@
       <c r="I264">
         <f>((C264-C263)^2+(D264- D263)^2)^.5</f>
       </c>
-      <c r="J264" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K264" s="2" t="s">
+      <c r="J264" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K264" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L264" t="n">
@@ -7796,28 +7808,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="s" s="2">
+      <c r="A266" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B266" t="s" s="2">
+      <c r="B266" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C266" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D266" t="s" s="2">
+      <c r="C266" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D266" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E266" t="s" s="2">
+      <c r="E266" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F266" t="s" s="2">
+      <c r="F266" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G266" t="s" s="2">
+      <c r="G266" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H266" t="s" s="2">
+      <c r="H266" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7842,28 +7854,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="B268" t="s" s="2">
+      <c r="B268" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C268" t="s" s="2">
+      <c r="C268" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D268" t="s" s="2">
+      <c r="D268" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E268" t="s" s="2">
+      <c r="E268" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F268" t="s" s="2">
+      <c r="F268" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G268" t="s" s="2">
+      <c r="G268" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H268" t="s" s="2">
+      <c r="H268" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I268" t="s" s="2">
+      <c r="I268" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7922,10 +7934,10 @@
       <c r="I270">
         <f>((C270-C269)^2+(D270- D269)^2)^.5</f>
       </c>
-      <c r="J270" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K270" s="2" t="s">
+      <c r="J270" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K270" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L270" t="n">
@@ -7969,28 +7981,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="s" s="2">
+      <c r="A272" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B272" t="s" s="2">
+      <c r="B272" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C272" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D272" t="s" s="2">
+      <c r="C272" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D272" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E272" t="s" s="2">
+      <c r="E272" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F272" t="s" s="2">
+      <c r="F272" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G272" t="s" s="2">
+      <c r="G272" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H272" t="s" s="2">
+      <c r="H272" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8015,28 +8027,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="B274" t="s" s="2">
+      <c r="B274" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C274" t="s" s="2">
+      <c r="C274" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D274" t="s" s="2">
+      <c r="D274" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E274" t="s" s="2">
+      <c r="E274" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F274" t="s" s="2">
+      <c r="F274" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G274" t="s" s="2">
+      <c r="G274" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H274" t="s" s="2">
+      <c r="H274" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I274" t="s" s="2">
+      <c r="I274" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8095,10 +8107,10 @@
       <c r="I276">
         <f>((C276-C275)^2+(D276- D275)^2)^.5</f>
       </c>
-      <c r="J276" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K276" s="2" t="s">
+      <c r="J276" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K276" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L276" t="n">
@@ -8142,28 +8154,28 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="s" s="2">
+      <c r="A278" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B278" t="s" s="2">
+      <c r="B278" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C278" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D278" t="s" s="2">
+      <c r="C278" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D278" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E278" t="s" s="2">
+      <c r="E278" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F278" t="s" s="2">
+      <c r="F278" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G278" t="s" s="2">
+      <c r="G278" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H278" t="s" s="2">
+      <c r="H278" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8188,28 +8200,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="B280" t="s" s="2">
+      <c r="B280" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C280" t="s" s="2">
+      <c r="C280" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D280" t="s" s="2">
+      <c r="D280" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E280" t="s" s="2">
+      <c r="E280" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F280" t="s" s="2">
+      <c r="F280" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G280" t="s" s="2">
+      <c r="G280" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H280" t="s" s="2">
+      <c r="H280" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I280" t="s" s="2">
+      <c r="I280" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8297,10 +8309,10 @@
       <c r="I283">
         <f>((C283-C282)^2+(D283- D282)^2)^.5</f>
       </c>
-      <c r="J283" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K283" s="2" t="s">
+      <c r="J283" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K283" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L283" t="n">
@@ -8344,28 +8356,28 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="s" s="2">
+      <c r="A285" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B285" t="s" s="2">
+      <c r="B285" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C285" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D285" t="s" s="2">
+      <c r="C285" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D285" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E285" t="s" s="2">
+      <c r="E285" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F285" t="s" s="2">
+      <c r="F285" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G285" t="s" s="2">
+      <c r="G285" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H285" t="s" s="2">
+      <c r="H285" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8390,28 +8402,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="B287" t="s" s="2">
+      <c r="B287" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C287" t="s" s="2">
+      <c r="C287" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D287" t="s" s="2">
+      <c r="D287" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E287" t="s" s="2">
+      <c r="E287" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F287" t="s" s="2">
+      <c r="F287" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G287" t="s" s="2">
+      <c r="G287" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H287" t="s" s="2">
+      <c r="H287" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I287" t="s" s="2">
+      <c r="I287" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8470,10 +8482,10 @@
       <c r="I289">
         <f>((C289-C288)^2+(D289- D288)^2)^.5</f>
       </c>
-      <c r="J289" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K289" s="2" t="s">
+      <c r="J289" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K289" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L289" t="n">
@@ -8517,28 +8529,28 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="s" s="2">
+      <c r="A291" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B291" t="s" s="2">
+      <c r="B291" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C291" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D291" t="s" s="2">
+      <c r="C291" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D291" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E291" t="s" s="2">
+      <c r="E291" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F291" t="s" s="2">
+      <c r="F291" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G291" t="s" s="2">
+      <c r="G291" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H291" t="s" s="2">
+      <c r="H291" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8563,28 +8575,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="B293" t="s" s="2">
+      <c r="B293" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C293" t="s" s="2">
+      <c r="C293" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D293" t="s" s="2">
+      <c r="D293" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E293" t="s" s="2">
+      <c r="E293" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F293" t="s" s="2">
+      <c r="F293" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G293" t="s" s="2">
+      <c r="G293" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H293" t="s" s="2">
+      <c r="H293" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I293" t="s" s="2">
+      <c r="I293" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8643,10 +8655,10 @@
       <c r="I295">
         <f>((C295-C294)^2+(D295- D294)^2)^.5</f>
       </c>
-      <c r="J295" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K295" s="2" t="s">
+      <c r="J295" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K295" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L295" t="n">
@@ -8690,28 +8702,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="s" s="2">
+      <c r="A297" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B297" t="s" s="2">
+      <c r="B297" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C297" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D297" t="s" s="2">
+      <c r="C297" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D297" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E297" t="s" s="2">
+      <c r="E297" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F297" t="s" s="2">
+      <c r="F297" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G297" t="s" s="2">
+      <c r="G297" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H297" t="s" s="2">
+      <c r="H297" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8736,28 +8748,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="B299" t="s" s="2">
+      <c r="B299" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C299" t="s" s="2">
+      <c r="C299" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D299" t="s" s="2">
+      <c r="D299" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E299" t="s" s="2">
+      <c r="E299" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F299" t="s" s="2">
+      <c r="F299" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G299" t="s" s="2">
+      <c r="G299" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H299" t="s" s="2">
+      <c r="H299" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I299" t="s" s="2">
+      <c r="I299" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8845,10 +8857,10 @@
       <c r="I302">
         <f>((C302-C301)^2+(D302- D301)^2)^.5</f>
       </c>
-      <c r="J302" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K302" s="2" t="s">
+      <c r="J302" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K302" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L302" t="n">
@@ -8892,28 +8904,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="s" s="2">
+      <c r="A304" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B304" t="s" s="2">
+      <c r="B304" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C304" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D304" t="s" s="2">
+      <c r="C304" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D304" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E304" t="s" s="2">
+      <c r="E304" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F304" t="s" s="2">
+      <c r="F304" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G304" t="s" s="2">
+      <c r="G304" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H304" t="s" s="2">
+      <c r="H304" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8938,28 +8950,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="B306" t="s" s="2">
+      <c r="B306" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C306" t="s" s="2">
+      <c r="C306" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D306" t="s" s="2">
+      <c r="D306" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E306" t="s" s="2">
+      <c r="E306" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F306" t="s" s="2">
+      <c r="F306" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G306" t="s" s="2">
+      <c r="G306" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H306" t="s" s="2">
+      <c r="H306" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I306" t="s" s="2">
+      <c r="I306" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9047,10 +9059,10 @@
       <c r="I309">
         <f>((C309-C308)^2+(D309- D308)^2)^.5</f>
       </c>
-      <c r="J309" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K309" s="2" t="s">
+      <c r="J309" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K309" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L309" t="n">
@@ -9094,28 +9106,28 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="s" s="2">
+      <c r="A311" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B311" t="s" s="2">
+      <c r="B311" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C311" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D311" t="s" s="2">
+      <c r="C311" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D311" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E311" t="s" s="2">
+      <c r="E311" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F311" t="s" s="2">
+      <c r="F311" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G311" t="s" s="2">
+      <c r="G311" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H311" t="s" s="2">
+      <c r="H311" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9140,28 +9152,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="B313" t="s" s="2">
+      <c r="B313" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C313" t="s" s="2">
+      <c r="C313" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D313" t="s" s="2">
+      <c r="D313" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E313" t="s" s="2">
+      <c r="E313" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F313" t="s" s="2">
+      <c r="F313" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G313" t="s" s="2">
+      <c r="G313" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H313" t="s" s="2">
+      <c r="H313" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I313" t="s" s="2">
+      <c r="I313" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9249,10 +9261,10 @@
       <c r="I316">
         <f>((C316-C315)^2+(D316- D315)^2)^.5</f>
       </c>
-      <c r="J316" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K316" s="2" t="s">
+      <c r="J316" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K316" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L316" t="n">
@@ -9296,28 +9308,28 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" t="s" s="2">
+      <c r="A318" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B318" t="s" s="2">
+      <c r="B318" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C318" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D318" t="s" s="2">
+      <c r="C318" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D318" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E318" t="s" s="2">
+      <c r="E318" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F318" t="s" s="2">
+      <c r="F318" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G318" t="s" s="2">
+      <c r="G318" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H318" t="s" s="2">
+      <c r="H318" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9342,28 +9354,28 @@
       </c>
     </row>
     <row r="320">
-      <c r="B320" t="s" s="2">
+      <c r="B320" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C320" t="s" s="2">
+      <c r="C320" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D320" t="s" s="2">
+      <c r="D320" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E320" t="s" s="2">
+      <c r="E320" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F320" t="s" s="2">
+      <c r="F320" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G320" t="s" s="2">
+      <c r="G320" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H320" t="s" s="2">
+      <c r="H320" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I320" t="s" s="2">
+      <c r="I320" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9422,10 +9434,10 @@
       <c r="I322">
         <f>((C322-C321)^2+(D322- D321)^2)^.5</f>
       </c>
-      <c r="J322" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K322" s="2" t="s">
+      <c r="J322" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K322" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L322" t="n">
@@ -9469,28 +9481,28 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="s" s="2">
+      <c r="A324" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B324" t="s" s="2">
+      <c r="B324" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C324" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D324" t="s" s="2">
+      <c r="C324" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D324" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E324" t="s" s="2">
+      <c r="E324" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F324" t="s" s="2">
+      <c r="F324" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G324" t="s" s="2">
+      <c r="G324" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H324" t="s" s="2">
+      <c r="H324" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9515,28 +9527,28 @@
       </c>
     </row>
     <row r="326">
-      <c r="B326" t="s" s="2">
+      <c r="B326" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C326" t="s" s="2">
+      <c r="C326" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D326" t="s" s="2">
+      <c r="D326" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E326" t="s" s="2">
+      <c r="E326" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F326" t="s" s="2">
+      <c r="F326" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G326" t="s" s="2">
+      <c r="G326" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H326" t="s" s="2">
+      <c r="H326" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I326" t="s" s="2">
+      <c r="I326" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9595,10 +9607,10 @@
       <c r="I328">
         <f>((C328-C327)^2+(D328- D327)^2)^.5</f>
       </c>
-      <c r="J328" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K328" s="2" t="s">
+      <c r="J328" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K328" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L328" t="n">
@@ -9642,28 +9654,28 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="s" s="2">
+      <c r="A330" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B330" t="s" s="2">
+      <c r="B330" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C330" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D330" t="s" s="2">
+      <c r="C330" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D330" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E330" t="s" s="2">
+      <c r="E330" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F330" t="s" s="2">
+      <c r="F330" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G330" t="s" s="2">
+      <c r="G330" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H330" t="s" s="2">
+      <c r="H330" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9688,28 +9700,28 @@
       </c>
     </row>
     <row r="332">
-      <c r="B332" t="s" s="2">
+      <c r="B332" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C332" t="s" s="2">
+      <c r="C332" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D332" t="s" s="2">
+      <c r="D332" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E332" t="s" s="2">
+      <c r="E332" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F332" t="s" s="2">
+      <c r="F332" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G332" t="s" s="2">
+      <c r="G332" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H332" t="s" s="2">
+      <c r="H332" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I332" t="s" s="2">
+      <c r="I332" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9768,10 +9780,10 @@
       <c r="I334">
         <f>((C334-C333)^2+(D334- D333)^2)^.5</f>
       </c>
-      <c r="J334" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K334" s="2" t="s">
+      <c r="J334" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K334" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L334" t="n">
@@ -9815,28 +9827,28 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" t="s" s="2">
+      <c r="A336" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B336" t="s" s="2">
+      <c r="B336" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C336" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D336" t="s" s="2">
+      <c r="C336" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D336" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E336" t="s" s="2">
+      <c r="E336" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F336" t="s" s="2">
+      <c r="F336" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G336" t="s" s="2">
+      <c r="G336" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H336" t="s" s="2">
+      <c r="H336" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9861,28 +9873,28 @@
       </c>
     </row>
     <row r="338">
-      <c r="B338" t="s" s="2">
+      <c r="B338" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C338" t="s" s="2">
+      <c r="C338" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D338" t="s" s="2">
+      <c r="D338" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E338" t="s" s="2">
+      <c r="E338" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F338" t="s" s="2">
+      <c r="F338" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G338" t="s" s="2">
+      <c r="G338" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H338" t="s" s="2">
+      <c r="H338" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I338" t="s" s="2">
+      <c r="I338" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9941,10 +9953,10 @@
       <c r="I340">
         <f>((C340-C339)^2+(D340- D339)^2)^.5</f>
       </c>
-      <c r="J340" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K340" s="2" t="s">
+      <c r="J340" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K340" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L340" t="n">
@@ -9988,28 +10000,28 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="s" s="2">
+      <c r="A342" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B342" t="s" s="2">
+      <c r="B342" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C342" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D342" t="s" s="2">
+      <c r="C342" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D342" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E342" t="s" s="2">
+      <c r="E342" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F342" t="s" s="2">
+      <c r="F342" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G342" t="s" s="2">
+      <c r="G342" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H342" t="s" s="2">
+      <c r="H342" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10034,28 +10046,28 @@
       </c>
     </row>
     <row r="344">
-      <c r="B344" t="s" s="2">
+      <c r="B344" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C344" t="s" s="2">
+      <c r="C344" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D344" t="s" s="2">
+      <c r="D344" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E344" t="s" s="2">
+      <c r="E344" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F344" t="s" s="2">
+      <c r="F344" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G344" t="s" s="2">
+      <c r="G344" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H344" t="s" s="2">
+      <c r="H344" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I344" t="s" s="2">
+      <c r="I344" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10114,10 +10126,10 @@
       <c r="I346">
         <f>((C346-C345)^2+(D346- D345)^2)^.5</f>
       </c>
-      <c r="J346" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K346" s="2" t="s">
+      <c r="J346" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K346" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L346" t="n">
@@ -10161,28 +10173,28 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" t="s" s="2">
+      <c r="A348" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B348" t="s" s="2">
+      <c r="B348" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C348" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D348" t="s" s="2">
+      <c r="C348" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D348" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E348" t="s" s="2">
+      <c r="E348" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F348" t="s" s="2">
+      <c r="F348" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G348" t="s" s="2">
+      <c r="G348" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H348" t="s" s="2">
+      <c r="H348" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10207,28 +10219,28 @@
       </c>
     </row>
     <row r="350">
-      <c r="B350" t="s" s="2">
+      <c r="B350" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C350" t="s" s="2">
+      <c r="C350" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D350" t="s" s="2">
+      <c r="D350" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E350" t="s" s="2">
+      <c r="E350" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F350" t="s" s="2">
+      <c r="F350" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G350" t="s" s="2">
+      <c r="G350" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H350" t="s" s="2">
+      <c r="H350" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I350" t="s" s="2">
+      <c r="I350" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10287,10 +10299,10 @@
       <c r="I352">
         <f>((C352-C351)^2+(D352- D351)^2)^.5</f>
       </c>
-      <c r="J352" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K352" s="2" t="s">
+      <c r="J352" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K352" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L352" t="n">
@@ -10334,28 +10346,28 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" t="s" s="2">
+      <c r="A354" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B354" t="s" s="2">
+      <c r="B354" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C354" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D354" t="s" s="2">
+      <c r="C354" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D354" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E354" t="s" s="2">
+      <c r="E354" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F354" t="s" s="2">
+      <c r="F354" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G354" t="s" s="2">
+      <c r="G354" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H354" t="s" s="2">
+      <c r="H354" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10380,28 +10392,28 @@
       </c>
     </row>
     <row r="356">
-      <c r="B356" t="s" s="2">
+      <c r="B356" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C356" t="s" s="2">
+      <c r="C356" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D356" t="s" s="2">
+      <c r="D356" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E356" t="s" s="2">
+      <c r="E356" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F356" t="s" s="2">
+      <c r="F356" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G356" t="s" s="2">
+      <c r="G356" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H356" t="s" s="2">
+      <c r="H356" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I356" t="s" s="2">
+      <c r="I356" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10460,10 +10472,10 @@
       <c r="I358">
         <f>((C358-C357)^2+(D358- D357)^2)^.5</f>
       </c>
-      <c r="J358" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K358" s="2" t="s">
+      <c r="J358" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K358" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L358" t="n">
@@ -10507,28 +10519,28 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" t="s" s="2">
+      <c r="A360" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B360" t="s" s="2">
+      <c r="B360" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C360" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D360" t="s" s="2">
+      <c r="C360" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D360" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E360" t="s" s="2">
+      <c r="E360" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F360" t="s" s="2">
+      <c r="F360" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G360" t="s" s="2">
+      <c r="G360" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H360" t="s" s="2">
+      <c r="H360" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10553,28 +10565,28 @@
       </c>
     </row>
     <row r="362">
-      <c r="B362" t="s" s="2">
+      <c r="B362" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C362" t="s" s="2">
+      <c r="C362" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D362" t="s" s="2">
+      <c r="D362" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E362" t="s" s="2">
+      <c r="E362" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F362" t="s" s="2">
+      <c r="F362" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G362" t="s" s="2">
+      <c r="G362" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H362" t="s" s="2">
+      <c r="H362" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I362" t="s" s="2">
+      <c r="I362" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10633,10 +10645,10 @@
       <c r="I364">
         <f>((C364-C363)^2+(D364- D363)^2)^.5</f>
       </c>
-      <c r="J364" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K364" s="2" t="s">
+      <c r="J364" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K364" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L364" t="n">
@@ -10680,28 +10692,28 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" t="s" s="2">
+      <c r="A366" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B366" t="s" s="2">
+      <c r="B366" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C366" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D366" t="s" s="2">
+      <c r="C366" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D366" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E366" t="s" s="2">
+      <c r="E366" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F366" t="s" s="2">
+      <c r="F366" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G366" t="s" s="2">
+      <c r="G366" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H366" t="s" s="2">
+      <c r="H366" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10726,28 +10738,28 @@
       </c>
     </row>
     <row r="368">
-      <c r="B368" t="s" s="2">
+      <c r="B368" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C368" t="s" s="2">
+      <c r="C368" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D368" t="s" s="2">
+      <c r="D368" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E368" t="s" s="2">
+      <c r="E368" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F368" t="s" s="2">
+      <c r="F368" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G368" t="s" s="2">
+      <c r="G368" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H368" t="s" s="2">
+      <c r="H368" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I368" t="s" s="2">
+      <c r="I368" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10835,10 +10847,10 @@
       <c r="I371">
         <f>((C371-C370)^2+(D371- D370)^2)^.5</f>
       </c>
-      <c r="J371" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K371" s="2" t="s">
+      <c r="J371" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K371" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L371" t="n">
